--- a/data/trans_bre/P16B97-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B97-Habitat-trans_bre.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,44</t>
+          <t>0,0; 30,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,34</t>
+          <t>0,0; 43,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,0</t>
+          <t>-5,96; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,0</t>
+          <t>-9,83; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,0</t>
+          <t>-5,96; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,0</t>
+          <t>-9,83; 0,0</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 0,0</t>
+          <t>-9,08; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,63</t>
+          <t>-2,94; 6,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 0,0</t>
+          <t>-9,08; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 5,99</t>
+          <t>-2,95; 7,13</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 3,04</t>
+          <t>-6,44; 2,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,0</t>
+          <t>-8,47; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 3,12</t>
+          <t>-6,6; 3,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,0</t>
+          <t>-8,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 0,0</t>
+          <t>-14,11; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,0</t>
+          <t>-6,21; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 0,0</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 0,0</t>
+          <t>-14,11; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,0</t>
+          <t>-6,21; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 0,0</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,0</t>
+          <t>-4,91; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,32</t>
+          <t>-2,22; 0,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,91</t>
+          <t>-3,17; 0,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,0</t>
+          <t>-4,91; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,32</t>
+          <t>-2,23; 0,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,93</t>
+          <t>-3,21; 0,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B97-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B97-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,34</t>
+          <t>0,0; 24,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,58</t>
+          <t>0,0; 31,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,0</t>
+          <t>-5,29; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,0</t>
+          <t>-8,76; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,19 +742,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,0</t>
+          <t>-5,29; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,0</t>
+          <t>-8,76; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,0</t>
+          <t>-11,27; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,54</t>
+          <t>-2,9; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,0</t>
+          <t>-11,27; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,14 +827,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 7,13</t>
+          <t>-2,93; 7,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,92</t>
+          <t>-6,25; 3,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 0,0</t>
+          <t>-8,9; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,01</t>
+          <t>-6,32; 3,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 0,0</t>
+          <t>-8,9; 0,0</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 0,0</t>
+          <t>-14,19; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,0</t>
+          <t>-5,6; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-8,95; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 0,0</t>
+          <t>-14,19; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,0</t>
+          <t>-5,6; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-8,95; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,46</t>
+          <t>-2,34; 0,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,97</t>
+          <t>-3,35; 0,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,46</t>
+          <t>-2,33; 0,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,98</t>
+          <t>-3,37; 0,88</t>
         </is>
       </c>
     </row>
